--- a/elk/shares/share_datas_fields.xlsx
+++ b/elk/shares/share_datas_fields.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="日周月行情" sheetId="1" r:id="rId1"/>
+    <sheet name="1分，5分，15分，30分，60分" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -578,7 +579,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -879,4 +880,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/elk/shares/share_datas_fields.xlsx
+++ b/elk/shares/share_datas_fields.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="日周月行情" sheetId="1" r:id="rId1"/>
     <sheet name="1分，5分，15分，30分，60分" sheetId="2" r:id="rId2"/>
+    <sheet name="news" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +252,106 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期（输入格式：YYYYMMDD 比如：20181211）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻联播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻资讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_history-cctv_news-0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新浪财经  sina  获取新浪财经实时资讯
+华尔街见闻  wallstreetcn  华尔街见闻快讯
+同花顺  10jqka  同花顺财经新闻
+东方财富  eastmoney  东方财富财经新闻
+云财经  yuncaijing  云财经新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>channels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>news_history-news-0001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,8 +395,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -578,8 +682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -894,4 +998,152 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="41.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>